--- a/ilin_R1_by_R2 (1.1 by 1)100.xlsx
+++ b/ilin_R1_by_R2 (1.1 by 1)100.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ilin" r:id="rId3" sheetId="1"/>
     <sheet name="ilin_pert" r:id="rId4" sheetId="2"/>
     <sheet name="ilin_pert_2" r:id="rId5" sheetId="3"/>
+    <sheet name="lin" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -301,6 +302,125 @@
         <v>-0.07799143720453555</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13.753266400770183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.314336567104487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.797458292684823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.441374157184427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.54664326103122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.49164709349992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.752739726790985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.9296154074092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86.77724446158619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>109.24607821816552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>137.53266400770184</v>
+      </c>
+      <c r="L3" t="n">
+        <v>173.14336567104488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>217.97458292684823</v>
+      </c>
+      <c r="N3" t="n">
+        <v>274.41374157184424</v>
+      </c>
+      <c r="O3" t="n">
+        <v>345.4664326103122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>434.9164709349992</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>547.5273972679098</v>
+      </c>
+      <c r="R3" t="n">
+        <v>689.296154074092</v>
+      </c>
+      <c r="S3" t="n">
+        <v>867.772444615862</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1092.4607821816553</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1375.3266400770183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1731.4336567104488</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2179.7458292684823</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2744.1374157184428</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3454.664326103122</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4349.164709349992</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5475.273972679099</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6892.96154074092</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8677.72444615862</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10924.607821816551</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13753.266400770182</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17314.336567104485</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21797.458292684823</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27441.374157184426</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34546.64326103122</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43491.64709349992</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>54752.739726790984</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>68929.6154074092</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>86777.2444615862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -550,6 +670,125 @@
       </c>
       <c r="AM2" t="n">
         <v>-0.07799137561895826</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13.753266400770183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.314336567104487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.797458292684823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.441374157184427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.54664326103122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.49164709349992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.752739726790985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.9296154074092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86.77724446158619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>109.24607821816552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>137.53266400770184</v>
+      </c>
+      <c r="L3" t="n">
+        <v>173.14336567104488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>217.97458292684823</v>
+      </c>
+      <c r="N3" t="n">
+        <v>274.41374157184424</v>
+      </c>
+      <c r="O3" t="n">
+        <v>345.4664326103122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>434.9164709349992</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>547.5273972679098</v>
+      </c>
+      <c r="R3" t="n">
+        <v>689.296154074092</v>
+      </c>
+      <c r="S3" t="n">
+        <v>867.772444615862</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1092.4607821816553</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1375.3266400770183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1731.4336567104488</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2179.7458292684823</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2744.1374157184428</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3454.664326103122</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4349.164709349992</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5475.273972679099</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6892.96154074092</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8677.72444615862</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10924.607821816551</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13753.266400770182</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17314.336567104485</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21797.458292684823</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27441.374157184426</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34546.64326103122</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43491.64709349992</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>54752.739726790984</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>68929.6154074092</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>86777.2444615862</v>
       </c>
     </row>
   </sheetData>
@@ -803,6 +1042,257 @@
         <v>-0.07799143720550641</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13.753266400770183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.314336567104487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.797458292684823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.441374157184427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.54664326103122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.49164709349992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.752739726790985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.9296154074092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86.77724446158619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>109.24607821816552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>137.53266400770184</v>
+      </c>
+      <c r="L3" t="n">
+        <v>173.14336567104488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>217.97458292684823</v>
+      </c>
+      <c r="N3" t="n">
+        <v>274.41374157184424</v>
+      </c>
+      <c r="O3" t="n">
+        <v>345.4664326103122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>434.9164709349992</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>547.5273972679098</v>
+      </c>
+      <c r="R3" t="n">
+        <v>689.296154074092</v>
+      </c>
+      <c r="S3" t="n">
+        <v>867.772444615862</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1092.4607821816553</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1375.3266400770183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1731.4336567104488</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2179.7458292684823</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2744.1374157184428</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3454.664326103122</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4349.164709349992</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5475.273972679099</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6892.96154074092</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8677.72444615862</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10924.607821816551</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13753.266400770182</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17314.336567104485</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21797.458292684823</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27441.374157184426</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34546.64326103122</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43491.64709349992</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>54752.739726790984</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>68929.6154074092</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>86777.2444615862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>13.753266400770183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17.314336567104487</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.797458292684823</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.441374157184427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34.54664326103122</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.49164709349992</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.752739726790985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.9296154074092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86.77724446158619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>109.24607821816552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>137.53266400770184</v>
+      </c>
+      <c r="L3" t="n">
+        <v>173.14336567104488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>217.97458292684823</v>
+      </c>
+      <c r="N3" t="n">
+        <v>274.41374157184424</v>
+      </c>
+      <c r="O3" t="n">
+        <v>345.4664326103122</v>
+      </c>
+      <c r="P3" t="n">
+        <v>434.9164709349992</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>547.5273972679098</v>
+      </c>
+      <c r="R3" t="n">
+        <v>689.296154074092</v>
+      </c>
+      <c r="S3" t="n">
+        <v>867.772444615862</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1092.4607821816553</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1375.3266400770183</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1731.4336567104488</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2179.7458292684823</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2744.1374157184428</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3454.664326103122</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4349.164709349992</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5475.273972679099</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6892.96154074092</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8677.72444615862</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10924.607821816551</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13753.266400770182</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>17314.336567104485</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21797.458292684823</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27441.374157184426</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34546.64326103122</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43491.64709349992</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>54752.739726790984</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>68929.6154074092</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>86777.2444615862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
